--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DEBA3D-B412-4FA6-A9D9-F68DAE3F108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C0706-FFEF-474B-A9B7-A6E7EB5F80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Student Name</t>
   </si>
@@ -205,6 +206,9 @@
   </si>
   <si>
     <t>Zackary Evans</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -522,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F2" sqref="F2:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,7 +541,7 @@
     <col min="5" max="5" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +557,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -570,8 +577,12 @@
       <c r="E2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <f xml:space="preserve"> AVERAGE(B2:E2)</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -587,8 +598,12 @@
       <c r="E3">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <f t="shared" ref="F3:F53" si="0" xml:space="preserve"> AVERAGE(B3:E3)</f>
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -604,8 +619,12 @@
       <c r="E4">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -621,8 +640,12 @@
       <c r="E5">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -638,8 +661,12 @@
       <c r="E6">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -655,8 +682,12 @@
       <c r="E7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -672,8 +703,12 @@
       <c r="E8">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -689,8 +724,12 @@
       <c r="E9">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -706,8 +745,12 @@
       <c r="E10">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>94.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -723,8 +766,12 @@
       <c r="E11">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -740,8 +787,12 @@
       <c r="E12">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -757,8 +808,12 @@
       <c r="E13">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -774,8 +829,12 @@
       <c r="E14">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -791,8 +850,12 @@
       <c r="E15">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -808,8 +871,12 @@
       <c r="E16">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -825,8 +892,12 @@
       <c r="E17">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -842,8 +913,12 @@
       <c r="E18">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -859,8 +934,12 @@
       <c r="E19">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -876,8 +955,12 @@
       <c r="E20">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>59.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -893,8 +976,12 @@
       <c r="E21">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -910,8 +997,12 @@
       <c r="E22">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -927,8 +1018,12 @@
       <c r="E23">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -944,8 +1039,12 @@
       <c r="E24">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -961,8 +1060,12 @@
       <c r="E25">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -978,8 +1081,12 @@
       <c r="E26">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -995,8 +1102,12 @@
       <c r="E27">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1012,8 +1123,12 @@
       <c r="E28">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1029,8 +1144,12 @@
       <c r="E29">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1046,8 +1165,12 @@
       <c r="E30">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1063,8 +1186,12 @@
       <c r="E31">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1080,8 +1207,12 @@
       <c r="E32">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1097,8 +1228,12 @@
       <c r="E33">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>78.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1114,8 +1249,12 @@
       <c r="E34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1131,8 +1270,12 @@
       <c r="E35">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1148,8 +1291,12 @@
       <c r="E36">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>71.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1165,8 +1312,12 @@
       <c r="E37">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1182,8 +1333,12 @@
       <c r="E38">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1199,8 +1354,12 @@
       <c r="E39">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1216,8 +1375,12 @@
       <c r="E40">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1233,8 +1396,12 @@
       <c r="E41">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1250,8 +1417,12 @@
       <c r="E42">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1267,8 +1438,12 @@
       <c r="E43">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1284,8 +1459,12 @@
       <c r="E44">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1301,8 +1480,12 @@
       <c r="E45">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1318,8 +1501,12 @@
       <c r="E46">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1335,8 +1522,12 @@
       <c r="E47">
         <v>87</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1352,8 +1543,12 @@
       <c r="E48">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1369,8 +1564,12 @@
       <c r="E49">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1386,8 +1585,12 @@
       <c r="E50">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1403,8 +1606,12 @@
       <c r="E51">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1420,8 +1627,12 @@
       <c r="E52">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>85.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1436,6 +1647,10 @@
       </c>
       <c r="E53">
         <v>50</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>52.75</v>
       </c>
     </row>
   </sheetData>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C0706-FFEF-474B-A9B7-A6E7EB5F80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13828F63-14ED-47F4-8BF8-A25DDEE6FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Student Name</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F53"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +544,7 @@
     <col min="5" max="5" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +563,11 @@
       <c r="F1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -581,8 +587,12 @@
         <f xml:space="preserve"> AVERAGE(B2:E2)</f>
         <v>81.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="str">
+        <f xml:space="preserve"> IF(F2 &gt;= 90, "A", IF(F2 &gt;= 80, "B", IF(F2 &gt;= 60, "C", IF(F2 &gt;= 50, "D", "F"))))</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -602,8 +612,12 @@
         <f t="shared" ref="F3:F53" si="0" xml:space="preserve"> AVERAGE(B3:E3)</f>
         <v>90.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G53" si="1" xml:space="preserve"> IF(F3 &gt;= 90, "A", IF(F3 &gt;= 80, "B", IF(F3 &gt;= 60, "C", IF(F3 &gt;= 50, "D", "F"))))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -623,8 +637,12 @@
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -644,8 +662,12 @@
         <f t="shared" si="0"/>
         <v>58.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -665,8 +687,12 @@
         <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -686,8 +712,12 @@
         <f t="shared" si="0"/>
         <v>80.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -707,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -728,8 +762,12 @@
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -749,8 +787,12 @@
         <f t="shared" si="0"/>
         <v>94.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -770,8 +812,12 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -791,8 +837,12 @@
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -812,8 +862,12 @@
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -833,8 +887,12 @@
         <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -854,8 +912,12 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -875,8 +937,12 @@
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -896,8 +962,12 @@
         <f t="shared" si="0"/>
         <v>64.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -917,8 +987,12 @@
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -938,8 +1012,12 @@
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -959,8 +1037,12 @@
         <f t="shared" si="0"/>
         <v>59.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -980,8 +1062,12 @@
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1001,8 +1087,12 @@
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1022,8 +1112,12 @@
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1043,8 +1137,12 @@
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1064,8 +1162,12 @@
         <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1085,8 +1187,12 @@
         <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1106,8 +1212,12 @@
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1127,8 +1237,12 @@
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1148,8 +1262,12 @@
         <f t="shared" si="0"/>
         <v>79.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1169,8 +1287,12 @@
         <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1190,8 +1312,12 @@
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1211,8 +1337,12 @@
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1232,8 +1362,12 @@
         <f t="shared" si="0"/>
         <v>78.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1253,8 +1387,12 @@
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1274,8 +1412,12 @@
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1295,8 +1437,12 @@
         <f t="shared" si="0"/>
         <v>71.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1316,8 +1462,12 @@
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1337,8 +1487,12 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1358,8 +1512,12 @@
         <f t="shared" si="0"/>
         <v>74.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1379,8 +1537,12 @@
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1400,8 +1562,12 @@
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1421,8 +1587,12 @@
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1442,8 +1612,12 @@
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1463,8 +1637,12 @@
         <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1484,8 +1662,12 @@
         <f t="shared" si="0"/>
         <v>72.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1505,8 +1687,12 @@
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1526,8 +1712,12 @@
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1547,8 +1737,12 @@
         <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1568,8 +1762,12 @@
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1589,8 +1787,12 @@
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1610,8 +1812,12 @@
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1631,8 +1837,12 @@
         <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1651,6 +1861,10 @@
       <c r="F53">
         <f t="shared" si="0"/>
         <v>52.75</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
       </c>
     </row>
   </sheetData>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13828F63-14ED-47F4-8BF8-A25DDEE6FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B5CC5-0424-4F94-85D1-E3EC92EE6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Student Name</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,7 +547,7 @@
     <col min="5" max="5" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,8 +569,11 @@
       <c r="G1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -591,8 +597,12 @@
         <f xml:space="preserve"> IF(F2 &gt;= 90, "A", IF(F2 &gt;= 80, "B", IF(F2 &gt;= 60, "C", IF(F2 &gt;= 50, "D", "F"))))</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" t="str">
+        <f>IF(G2 = "A", "Excellent", IF(G2 = "B", "Good", IF(G2 = "C","Average",IF(G2="D","Poor","Fail"))))</f>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -616,8 +626,12 @@
         <f t="shared" ref="G3:G53" si="1" xml:space="preserve"> IF(F3 &gt;= 90, "A", IF(F3 &gt;= 80, "B", IF(F3 &gt;= 60, "C", IF(F3 &gt;= 50, "D", "F"))))</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="str">
+        <f>IF(G3 = "A", "Excellent", IF(G3 = "B", "Good", IF(G3 = "C","Average",IF(G3="D","Poor","Fail"))))</f>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -641,8 +655,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H53" si="2">IF(G4 = "A", "Excellent", IF(G4 = "B", "Good", IF(G4 = "C","Average",IF(G4="D","Poor","Fail"))))</f>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -666,8 +684,12 @@
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -691,8 +713,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -716,8 +742,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -741,8 +771,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -766,8 +800,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -791,8 +829,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -816,8 +858,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -841,8 +887,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -866,8 +916,12 @@
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -891,8 +945,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -916,8 +974,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -941,8 +1003,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -966,8 +1032,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -991,8 +1061,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1016,8 +1090,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1041,8 +1119,12 @@
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1066,8 +1148,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1091,8 +1177,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1116,8 +1206,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1141,8 +1235,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1166,8 +1264,12 @@
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1191,8 +1293,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1216,8 +1322,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1241,8 +1351,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1266,8 +1380,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1291,8 +1409,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1316,8 +1438,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1341,8 +1467,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1366,8 +1496,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1391,8 +1525,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1416,8 +1554,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1441,8 +1583,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1466,8 +1612,12 @@
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1491,8 +1641,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1516,8 +1670,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1541,8 +1699,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1566,8 +1728,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1591,8 +1757,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1616,8 +1786,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1641,8 +1815,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1666,8 +1844,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1691,8 +1873,12 @@
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>Poor</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1716,8 +1902,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1741,8 +1931,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1766,8 +1960,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1791,8 +1989,12 @@
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1816,8 +2018,12 @@
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1841,8 +2047,12 @@
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1865,6 +2075,10 @@
       <c r="G53" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>Poor</v>
       </c>
     </row>
   </sheetData>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B5CC5-0424-4F94-85D1-E3EC92EE6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214F1C7E-D8A1-4627-9CE6-5CEF99856017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Student Name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Clara Davis</t>
   </si>
   <si>
-    <t>Daniel Lee</t>
-  </si>
-  <si>
     <t>Emily Brown</t>
   </si>
   <si>
@@ -215,6 +212,54 @@
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>David Akinyemi</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Grace Okoro</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>Ibrahim Yusuf</t>
+  </si>
+  <si>
+    <t>Chinedu Eze</t>
+  </si>
+  <si>
+    <t>Very Poor</t>
+  </si>
+  <si>
+    <t>Fatima Lawal</t>
+  </si>
+  <si>
+    <t>Needs Attention</t>
+  </si>
+  <si>
+    <t>Kelvin James</t>
+  </si>
+  <si>
+    <t>Below Average</t>
+  </si>
+  <si>
+    <t>Sarah Adeoye</t>
+  </si>
+  <si>
+    <t>Musa Ibrahim</t>
+  </si>
+  <si>
+    <t>Janet Ojo</t>
+  </si>
+  <si>
+    <t>Critical</t>
   </si>
 </sst>
 </file>
@@ -256,7 +301,78 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -532,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,13 +680,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -619,11 +735,11 @@
         <v>91</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F53" si="0" xml:space="preserve"> AVERAGE(B3:E3)</f>
+        <f t="shared" ref="F3:F57" si="0" xml:space="preserve"> AVERAGE(B3:E3)</f>
         <v>90.25</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G53" si="1" xml:space="preserve"> IF(F3 &gt;= 90, "A", IF(F3 &gt;= 80, "B", IF(F3 &gt;= 60, "C", IF(F3 &gt;= 50, "D", "F"))))</f>
+        <f t="shared" ref="G3:G57" si="1" xml:space="preserve"> IF(F3 &gt;= 90, "A", IF(F3 &gt;= 80, "B", IF(F3 &gt;= 60, "C", IF(F3 &gt;= 50, "D", "F"))))</f>
         <v>A</v>
       </c>
       <c r="H3" t="str">
@@ -656,42 +772,39 @@
         <v>C</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H53" si="2">IF(G4 = "A", "Excellent", IF(G4 = "B", "Good", IF(G4 = "C","Average",IF(G4="D","Poor","Fail"))))</f>
+        <f t="shared" ref="H4:H57" si="2">IF(G4 = "A", "Excellent", IF(G4 = "B", "Good", IF(G4 = "C","Average",IF(G4="D","Poor","Fail"))))</f>
         <v>Average</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="D5">
-        <v>58</v>
-      </c>
-      <c r="E5">
-        <v>62</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>58.75</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="2"/>
-        <v>Poor</v>
+      <c r="H5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>92</v>
@@ -720,7 +833,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>81</v>
@@ -749,7 +862,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>76</v>
@@ -778,7 +891,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>68</v>
@@ -807,7 +920,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>94</v>
@@ -836,7 +949,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>83</v>
@@ -865,7 +978,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>71</v>
@@ -894,7 +1007,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>58</v>
@@ -923,7 +1036,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>89</v>
@@ -952,7 +1065,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>85</v>
@@ -981,7 +1094,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>75</v>
@@ -1010,7 +1123,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>64</v>
@@ -1039,7 +1152,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>98</v>
@@ -1068,7 +1181,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>82</v>
@@ -1097,7 +1210,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>60</v>
@@ -1126,7 +1239,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>87</v>
@@ -1155,7 +1268,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>66</v>
@@ -1184,7 +1297,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>78</v>
@@ -1213,7 +1326,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>93</v>
@@ -1242,7 +1355,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>55</v>
@@ -1271,110 +1384,104 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E26">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>83.75</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>Good</v>
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B27">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E27">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>68.5</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>Average</v>
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C28">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D28">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>91.5</v>
+        <v>83.75</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
-        <v>Excellent</v>
+        <v>Good</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D29">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>79.25</v>
+        <v>68.5</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
@@ -1387,52 +1494,52 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D30">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E30">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>64.5</v>
+        <v>91.5</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
-        <v>Average</v>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C31">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D31">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E31">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>73.5</v>
+        <v>79.25</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
@@ -1445,52 +1552,52 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E32">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>96.5</v>
+        <v>64.5</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
-        <v>Excellent</v>
+        <v>Average</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D33">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E33">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>78.25</v>
+        <v>73.5</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
@@ -1503,81 +1610,78 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D34">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>60.5</v>
+        <v>96.5</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
-        <v>Average</v>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B35">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E35">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>85.5</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>Good</v>
+        <v>31.5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C36">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D36">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>71.75</v>
+        <v>78.25</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
@@ -1590,52 +1694,52 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <v>62</v>
+      </c>
+      <c r="D37">
         <v>61</v>
-      </c>
-      <c r="C37">
-        <v>59</v>
-      </c>
-      <c r="D37">
-        <v>58</v>
       </c>
       <c r="E37">
         <v>60</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="2"/>
-        <v>Poor</v>
+        <v>Average</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38">
+        <v>87</v>
+      </c>
+      <c r="E38">
         <v>85</v>
       </c>
-      <c r="E38">
-        <v>89</v>
-      </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>85.5</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
@@ -1648,23 +1752,23 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C39">
+        <v>72</v>
+      </c>
+      <c r="D39">
         <v>74</v>
       </c>
-      <c r="D39">
-        <v>75</v>
-      </c>
       <c r="E39">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>74.5</v>
+        <v>71.75</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
@@ -1677,168 +1781,165 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E40">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>59.5</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="2"/>
-        <v>Excellent</v>
+        <v>Poor</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C41">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D41">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E41">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>87</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="2"/>
-        <v>Average</v>
+        <v>Good</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C42">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D42">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E42">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>90.5</v>
+        <v>74.5</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
-        <v>Excellent</v>
+        <v>Average</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B43">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E43">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>65.5</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>Average</v>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C44">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D44">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E44">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>81.5</v>
+        <v>97.5</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
-        <v>Good</v>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C45">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D45">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E45">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>72.25</v>
+        <v>62.5</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
@@ -1851,110 +1952,110 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E46">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>57.5</v>
+        <v>90.5</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="2"/>
-        <v>Poor</v>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C47">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E47">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>86.5</v>
+        <v>65.5</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="2"/>
-        <v>Good</v>
+        <v>Average</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C48">
+        <v>80</v>
+      </c>
+      <c r="D48">
+        <v>83</v>
+      </c>
+      <c r="E48">
         <v>81</v>
       </c>
-      <c r="D48">
-        <v>80</v>
-      </c>
-      <c r="E48">
-        <v>78</v>
-      </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>79.5</v>
+        <v>81.5</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
-        <v>Average</v>
+        <v>Good</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>70.5</v>
+        <v>72.25</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
@@ -1967,121 +2068,356 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C50">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D50">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E50">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>57.5</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="2"/>
-        <v>Average</v>
+        <v>Poor</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C51">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D51">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E51">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>86.5</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="2"/>
-        <v>Excellent</v>
+        <v>Good</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C52">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D52">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E52">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>85.25</v>
+        <v>79.5</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="2"/>
-        <v>Good</v>
+        <v>Average</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B53">
+        <v>69</v>
+      </c>
+      <c r="C53">
+        <v>71</v>
+      </c>
+      <c r="D53">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>72</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>70.5</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <v>65</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>Average</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>92</v>
+      </c>
+      <c r="C55">
+        <v>94</v>
+      </c>
+      <c r="D55">
+        <v>93</v>
+      </c>
+      <c r="E55">
+        <v>91</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>Excellent</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="C53">
+      <c r="B56">
+        <v>86</v>
+      </c>
+      <c r="C56">
+        <v>83</v>
+      </c>
+      <c r="D56">
+        <v>85</v>
+      </c>
+      <c r="E56">
+        <v>87</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>85.25</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57">
         <v>52</v>
       </c>
-      <c r="D53">
+      <c r="D57">
         <v>55</v>
       </c>
-      <c r="E53">
+      <c r="E57">
         <v>50</v>
       </c>
-      <c r="F53">
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>52.75</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G57" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="H53" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58">
+        <v>39</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>27</v>
+      </c>
+      <c r="E58">
+        <v>28</v>
+      </c>
+      <c r="F58">
+        <v>33.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59">
+        <v>35</v>
+      </c>
+      <c r="F59">
+        <v>28</v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>35</v>
+      </c>
+      <c r="E60">
+        <v>38</v>
+      </c>
+      <c r="F60">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>39</v>
+      </c>
+      <c r="E61">
+        <v>33</v>
+      </c>
+      <c r="F61">
+        <v>27.8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G57">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="D">
+      <formula>NOT(ISERROR(SEARCH("D",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="B">
+      <formula>NOT(ISERROR(SEARCH("B",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="A">
+      <formula>NOT(ISERROR(SEARCH("A",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214F1C7E-D8A1-4627-9CE6-5CEF99856017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082300B-26B5-470C-BAAF-07EFA8AE0E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Student Name</t>
   </si>
@@ -220,36 +220,21 @@
     <t>F</t>
   </si>
   <si>
-    <t>Poor</t>
-  </si>
-  <si>
     <t>Grace Okoro</t>
   </si>
   <si>
-    <t>Needs Improvement</t>
-  </si>
-  <si>
     <t>Ibrahim Yusuf</t>
   </si>
   <si>
     <t>Chinedu Eze</t>
   </si>
   <si>
-    <t>Very Poor</t>
-  </si>
-  <si>
     <t>Fatima Lawal</t>
   </si>
   <si>
-    <t>Needs Attention</t>
-  </si>
-  <si>
     <t>Kelvin James</t>
   </si>
   <si>
-    <t>Below Average</t>
-  </si>
-  <si>
     <t>Sarah Adeoye</t>
   </si>
   <si>
@@ -257,9 +242,6 @@
   </si>
   <si>
     <t>Janet Ojo</t>
-  </si>
-  <si>
-    <t>Critical</t>
   </si>
 </sst>
 </file>
@@ -301,7 +283,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -650,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,7 +760,7 @@
         <v>A</v>
       </c>
       <c r="H3" t="str">
-        <f>IF(G3 = "A", "Excellent", IF(G3 = "B", "Good", IF(G3 = "C","Average",IF(G3="D","Poor","Fail"))))</f>
+        <f t="shared" ref="H3:H61" si="2">IF(G3 = "A", "Excellent", IF(G3 = "B", "Good", IF(G3 = "C","Average",IF(G3="D","Poor","Fail"))))</f>
         <v>Excellent</v>
       </c>
     </row>
@@ -772,13 +789,13 @@
         <v>C</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H57" si="2">IF(G4 = "A", "Excellent", IF(G4 = "B", "Good", IF(G4 = "C","Average",IF(G4="D","Poor","Fail"))))</f>
+        <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -798,8 +815,9 @@
       <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="s">
-        <v>68</v>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1404,13 +1422,14 @@
       <c r="G26" t="s">
         <v>60</v>
       </c>
-      <c r="H26" t="s">
-        <v>61</v>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -1430,8 +1449,9 @@
       <c r="G27" t="s">
         <v>60</v>
       </c>
-      <c r="H27" t="s">
-        <v>74</v>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1639,7 +1659,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>36</v>
@@ -1659,8 +1679,9 @@
       <c r="G35" t="s">
         <v>60</v>
       </c>
-      <c r="H35" t="s">
-        <v>70</v>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1868,7 +1889,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>22</v>
@@ -1888,8 +1909,9 @@
       <c r="G43" t="s">
         <v>60</v>
       </c>
-      <c r="H43" t="s">
-        <v>63</v>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -2300,7 +2322,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>39</v>
@@ -2320,13 +2342,14 @@
       <c r="G58" t="s">
         <v>60</v>
       </c>
-      <c r="H58" t="s">
-        <v>63</v>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>25</v>
@@ -2346,13 +2369,14 @@
       <c r="G59" t="s">
         <v>60</v>
       </c>
-      <c r="H59" t="s">
-        <v>66</v>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>30</v>
@@ -2372,13 +2396,14 @@
       <c r="G60" t="s">
         <v>60</v>
       </c>
-      <c r="H60" t="s">
-        <v>61</v>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>18</v>
@@ -2398,23 +2423,29 @@
       <c r="G61" t="s">
         <v>60</v>
       </c>
-      <c r="H61" t="s">
-        <v>66</v>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>Fail</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G61">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="F">
+      <formula>NOT(ISERROR(SEARCH("F",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0082300B-26B5-470C-BAAF-07EFA8AE0E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85650790-CF6B-4664-96B5-448AC31F7E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Student_Gradebook" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Student Name</t>
   </si>
@@ -242,6 +243,24 @@
   </si>
   <si>
     <t>Janet Ojo</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Grade count</t>
   </si>
 </sst>
 </file>
@@ -400,6 +419,1803 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Student_Gradebook!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grade count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Student_Gradebook!$J$2:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Student_Gradebook!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C653-4AA8-8F18-4D3639069DE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Student_Gradebook!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grade count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AB39-404C-819D-EEC227A67F47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AB39-404C-819D-EEC227A67F47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AB39-404C-819D-EEC227A67F47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AB39-404C-819D-EEC227A67F47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-AB39-404C-819D-EEC227A67F47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Student_Gradebook!$J$2:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Student_Gradebook!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AB39-404C-819D-EEC227A67F47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58821698-9AB7-4BED-A869-7A9FBFF3936D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E86F51-2239-4D30-A5C1-AACE644DC439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,9 +2494,10 @@
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,8 +2522,14 @@
       <c r="H1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -734,8 +2557,15 @@
         <f>IF(G2 = "A", "Excellent", IF(G2 = "B", "Good", IF(G2 = "C","Average",IF(G2="D","Poor","Fail"))))</f>
         <v>Good</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2">
+        <f xml:space="preserve"> COUNTIF(G:G, "A")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -763,8 +2593,15 @@
         <f t="shared" ref="H3:H61" si="2">IF(G3 = "A", "Excellent", IF(G3 = "B", "Good", IF(G3 = "C","Average",IF(G3="D","Poor","Fail"))))</f>
         <v>Excellent</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3">
+        <f xml:space="preserve"> COUNTIF(G:G, "B")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -792,8 +2629,15 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> COUNTIF(G:G, "C")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -819,8 +2663,15 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> COUNTIF(G:G, "D")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -848,8 +2699,15 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> COUNTIF(G:G, "F")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -878,7 +2736,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -907,7 +2765,7 @@
         <v>Average</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -936,7 +2794,7 @@
         <v>Average</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -965,7 +2823,7 @@
         <v>Excellent</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -994,7 +2852,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +2881,7 @@
         <v>Average</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +2910,7 @@
         <v>Poor</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1081,7 +2939,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +2968,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2430,16 +4288,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2450,5 +4308,21 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B22998B-AE2C-4E62-B233-634194BD4779}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85650790-CF6B-4664-96B5-448AC31F7E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB1162C-91B0-4568-AB45-A007B2C79BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Gradebook" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -296,13 +295,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -338,76 +340,6 @@
         <color rgb="FF7030A0"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -422,291 +354,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Student_Gradebook!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Grade count</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Student_Gradebook!$J$2:$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>E</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Student_Gradebook!$K$2:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C653-4AA8-8F18-4D3639069DE2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1017,46 +664,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1615,567 +1222,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58821698-9AB7-4BED-A869-7A9FBFF3936D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2483,1805 +1530,1807 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="13.54296875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>78</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>82</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>85</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>80</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f xml:space="preserve"> AVERAGE(B2:E2)</f>
         <v>81.25</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="1" t="str">
         <f xml:space="preserve"> IF(F2 &gt;= 90, "A", IF(F2 &gt;= 80, "B", IF(F2 &gt;= 60, "C", IF(F2 &gt;= 50, "D", "F"))))</f>
         <v>B</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="1" t="str">
         <f>IF(G2 = "A", "Excellent", IF(G2 = "B", "Good", IF(G2 = "C","Average",IF(G2="D","Poor","Fail"))))</f>
         <v>Good</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <f xml:space="preserve"> COUNTIF(G:G, "A")</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>88</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>92</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>91</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F57" si="0" xml:space="preserve"> AVERAGE(B3:E3)</f>
         <v>90.25</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G57" si="1" xml:space="preserve"> IF(F3 &gt;= 90, "A", IF(F3 &gt;= 80, "B", IF(F3 &gt;= 60, "C", IF(F3 &gt;= 50, "D", "F"))))</f>
         <v>A</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H61" si="2">IF(G3 = "A", "Excellent", IF(G3 = "B", "Good", IF(G3 = "C","Average",IF(G3="D","Poor","Fail"))))</f>
         <v>Excellent</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f xml:space="preserve"> COUNTIF(G:G, "B")</f>
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>65</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>70</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>68</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>72</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f xml:space="preserve"> COUNTIF(G:G, "C")</f>
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>37</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>31</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>29</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>34.299999999999997</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <f xml:space="preserve"> COUNTIF(G:G, "D")</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>92</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>95</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>90</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>88</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f xml:space="preserve"> COUNTIF(G:G, "F")</f>
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>81</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>79</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>83</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>80</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>80.75</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>76</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>74</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>72</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>78</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>68</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>65</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>70</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>66</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>94</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>92</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>95</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>96</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>94.25</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>83</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>85</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>80</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>84</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>71</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>73</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>70</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>68</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>58</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>60</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>59</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>61</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="H13" t="str">
+      <c r="H13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>89</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>90</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>88</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>91</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>85</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>82</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>87</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>86</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>75</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>77</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>73</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>70</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>64</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>61</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>67</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>65</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>64.25</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>98</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>97</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>96</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>95</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>82</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>85</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>84</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>83</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>60</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>58</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>62</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>59</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>59.75</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>87</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>89</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>88</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>90</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>66</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>70</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>65</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>68</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>78</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>75</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>80</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>77</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>93</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>92</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>91</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>55</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>53</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>52</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>54</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H25" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>35</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>42</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>28</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>31</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>34</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>19</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>24</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>38</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>31</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>28</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>84</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>82</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>86</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>83</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>68</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>67</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>70</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>69</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>91</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>93</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>90</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>92</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>79</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>77</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>81</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>80</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>79.25</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>63</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>65</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>66</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>64</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>74</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>72</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>73</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>75</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>95</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>97</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>96</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>98</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>36</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>30</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>34</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>26</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>31.5</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>80</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>78</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>76</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>79</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <f t="shared" si="0"/>
         <v>78.25</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H36" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>59</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>62</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>61</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>60</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>86</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>84</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>87</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>85</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>70</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>72</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>74</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>71</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <f t="shared" si="0"/>
         <v>71.75</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>61</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>59</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>58</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>60</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>88</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>86</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>85</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>89</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>76</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>74</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>75</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>73</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <f t="shared" si="0"/>
         <v>74.5</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>22</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>38</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>41</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>34</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>33.799999999999997</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>99</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>98</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>97</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>96</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>62</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>64</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>63</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>61</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>90</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>92</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>91</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>89</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>67</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>65</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>64</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>66</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>82</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>80</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>83</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>81</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>73</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>70</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>72</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>74</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <f t="shared" si="0"/>
         <v>72.25</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>58</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>56</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>59</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>57</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>85</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>88</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>86</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>87</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>79</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>81</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>80</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>78</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>69</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>71</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>70</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>72</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H53" t="str">
+      <c r="H53" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>63</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>60</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>62</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>65</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="H54" t="str">
+      <c r="H54" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>92</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>94</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>93</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>91</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="G55" t="str">
+      <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="H55" t="str">
+      <c r="H55" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>86</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>83</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>85</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>87</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
-      <c r="G56" t="str">
+      <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="H56" t="str">
+      <c r="H56" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>54</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>52</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>55</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>50</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <f t="shared" si="0"/>
         <v>52.75</v>
       </c>
-      <c r="G57" t="str">
+      <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="H57" t="str">
+      <c r="H57" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>39</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>40</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>27</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>28</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>33.5</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H58" t="str">
+      <c r="H58" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>25</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>20</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>32</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>35</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>28</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H59" t="str">
+      <c r="H59" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>30</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>26</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>35</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>38</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H60" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>18</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>21</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>39</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>33</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>27.8</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
@@ -4308,7 +3357,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4316,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B22998B-AE2C-4E62-B233-634194BD4779}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB1162C-91B0-4568-AB45-A007B2C79BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6369C6-E840-449F-A5F0-66603AC02250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,12 +275,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -295,9 +301,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,7 +1540,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1550,25 +1559,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J1" s="1" t="s">

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6369C6-E840-449F-A5F0-66603AC02250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2773F2AF-73B4-4E13-9B99-998ACAF7D3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1555,7 +1555,7 @@
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2773F2AF-73B4-4E13-9B99-998ACAF7D3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AD05DC-9348-4DD7-8BC2-8C562045E810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,12 +301,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1540,7 +1543,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1603,7 +1606,7 @@
       <c r="E2" s="1">
         <v>80</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <f xml:space="preserve"> AVERAGE(B2:E2)</f>
         <v>81.25</v>
       </c>
@@ -1639,7 +1642,7 @@
       <c r="E3" s="1">
         <v>91</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F57" si="0" xml:space="preserve"> AVERAGE(B3:E3)</f>
         <v>90.25</v>
       </c>
@@ -1675,7 +1678,7 @@
       <c r="E4" s="1">
         <v>72</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
@@ -1711,7 +1714,7 @@
       <c r="E5" s="1">
         <v>29</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>34.299999999999997</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1745,7 +1748,7 @@
       <c r="E6" s="1">
         <v>88</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
@@ -1781,7 +1784,7 @@
       <c r="E7" s="1">
         <v>80</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>80.75</v>
       </c>
@@ -1810,7 +1813,7 @@
       <c r="E8" s="1">
         <v>78</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="E9" s="1">
         <v>66</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
@@ -1868,7 +1871,7 @@
       <c r="E10" s="1">
         <v>96</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>94.25</v>
       </c>
@@ -1897,7 +1900,7 @@
       <c r="E11" s="1">
         <v>84</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -1926,7 +1929,7 @@
       <c r="E12" s="1">
         <v>68</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
@@ -1955,7 +1958,7 @@
       <c r="E13" s="1">
         <v>61</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
@@ -1984,7 +1987,7 @@
       <c r="E14" s="1">
         <v>91</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
@@ -2013,7 +2016,7 @@
       <c r="E15" s="1">
         <v>86</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -2042,7 +2045,7 @@
       <c r="E16" s="1">
         <v>70</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
@@ -2071,7 +2074,7 @@
       <c r="E17" s="1">
         <v>65</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>64.25</v>
       </c>
@@ -2100,7 +2103,7 @@
       <c r="E18" s="1">
         <v>95</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
@@ -2129,7 +2132,7 @@
       <c r="E19" s="1">
         <v>83</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
@@ -2158,7 +2161,7 @@
       <c r="E20" s="1">
         <v>59</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>59.75</v>
       </c>
@@ -2187,7 +2190,7 @@
       <c r="E21" s="1">
         <v>90</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
@@ -2216,7 +2219,7 @@
       <c r="E22" s="1">
         <v>68</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
@@ -2245,7 +2248,7 @@
       <c r="E23" s="1">
         <v>77</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
@@ -2274,7 +2277,7 @@
       <c r="E24" s="1">
         <v>91</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="E25" s="1">
         <v>54</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
@@ -2332,7 +2335,7 @@
       <c r="E26" s="1">
         <v>31</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>34</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2359,7 +2362,7 @@
       <c r="E27" s="1">
         <v>31</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2386,7 +2389,7 @@
       <c r="E28" s="1">
         <v>83</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
@@ -2415,7 +2418,7 @@
       <c r="E29" s="1">
         <v>69</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
@@ -2444,7 +2447,7 @@
       <c r="E30" s="1">
         <v>92</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
@@ -2473,7 +2476,7 @@
       <c r="E31" s="1">
         <v>80</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="3">
         <f t="shared" si="0"/>
         <v>79.25</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="E32" s="1">
         <v>64</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
@@ -2531,7 +2534,7 @@
       <c r="E33" s="1">
         <v>75</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="3">
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
@@ -2560,7 +2563,7 @@
       <c r="E34" s="1">
         <v>98</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="3">
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
@@ -2589,7 +2592,7 @@
       <c r="E35" s="1">
         <v>26</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="3">
         <v>31.5</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2616,7 +2619,7 @@
       <c r="E36" s="1">
         <v>79</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="3">
         <f t="shared" si="0"/>
         <v>78.25</v>
       </c>
@@ -2645,7 +2648,7 @@
       <c r="E37" s="1">
         <v>60</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="E38" s="1">
         <v>85</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
@@ -2703,7 +2706,7 @@
       <c r="E39" s="1">
         <v>71</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <f t="shared" si="0"/>
         <v>71.75</v>
       </c>
@@ -2732,7 +2735,7 @@
       <c r="E40" s="1">
         <v>60</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
@@ -2761,7 +2764,7 @@
       <c r="E41" s="1">
         <v>89</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -2790,7 +2793,7 @@
       <c r="E42" s="1">
         <v>73</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <f t="shared" si="0"/>
         <v>74.5</v>
       </c>
@@ -2819,7 +2822,7 @@
       <c r="E43" s="1">
         <v>34</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>33.799999999999997</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2846,7 +2849,7 @@
       <c r="E44" s="1">
         <v>96</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
@@ -2875,7 +2878,7 @@
       <c r="E45" s="1">
         <v>61</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
@@ -2904,7 +2907,7 @@
       <c r="E46" s="1">
         <v>89</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
@@ -2933,7 +2936,7 @@
       <c r="E47" s="1">
         <v>66</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
@@ -2962,7 +2965,7 @@
       <c r="E48" s="1">
         <v>81</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
@@ -2991,7 +2994,7 @@
       <c r="E49" s="1">
         <v>74</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <f t="shared" si="0"/>
         <v>72.25</v>
       </c>
@@ -3020,7 +3023,7 @@
       <c r="E50" s="1">
         <v>57</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="3">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
@@ -3049,7 +3052,7 @@
       <c r="E51" s="1">
         <v>87</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
@@ -3078,7 +3081,7 @@
       <c r="E52" s="1">
         <v>78</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
@@ -3107,7 +3110,7 @@
       <c r="E53" s="1">
         <v>72</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
@@ -3136,7 +3139,7 @@
       <c r="E54" s="1">
         <v>65</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="3">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
@@ -3165,7 +3168,7 @@
       <c r="E55" s="1">
         <v>91</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="3">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -3194,7 +3197,7 @@
       <c r="E56" s="1">
         <v>87</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="3">
         <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
@@ -3223,7 +3226,7 @@
       <c r="E57" s="1">
         <v>50</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="3">
         <f t="shared" si="0"/>
         <v>52.75</v>
       </c>
@@ -3252,7 +3255,7 @@
       <c r="E58" s="1">
         <v>28</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="3">
         <v>33.5</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3279,7 +3282,7 @@
       <c r="E59" s="1">
         <v>35</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>28</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3306,7 +3309,7 @@
       <c r="E60" s="1">
         <v>38</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="3">
         <v>32.299999999999997</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3333,7 +3336,7 @@
       <c r="E61" s="1">
         <v>33</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="3">
         <v>27.8</v>
       </c>
       <c r="G61" s="1" t="s">

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AD05DC-9348-4DD7-8BC2-8C562045E810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6335E4C-CB2C-46E1-B85F-16E3607A5F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,8 +266,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -301,15 +309,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1553,40 +1564,43 @@
     <col min="3" max="3" width="11.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="10.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="1"/>
     <col min="11" max="11" width="13.54296875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1606,7 +1620,7 @@
       <c r="E2" s="1">
         <v>80</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f xml:space="preserve"> AVERAGE(B2:E2)</f>
         <v>81.25</v>
       </c>
@@ -1642,7 +1656,7 @@
       <c r="E3" s="1">
         <v>91</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F57" si="0" xml:space="preserve"> AVERAGE(B3:E3)</f>
         <v>90.25</v>
       </c>
@@ -1678,7 +1692,7 @@
       <c r="E4" s="1">
         <v>72</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
@@ -1714,7 +1728,7 @@
       <c r="E5" s="1">
         <v>29</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>34.299999999999997</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1748,7 +1762,7 @@
       <c r="E6" s="1">
         <v>88</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
@@ -1784,7 +1798,7 @@
       <c r="E7" s="1">
         <v>80</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>80.75</v>
       </c>
@@ -1813,7 +1827,7 @@
       <c r="E8" s="1">
         <v>78</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -1842,7 +1856,7 @@
       <c r="E9" s="1">
         <v>66</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
@@ -1871,7 +1885,7 @@
       <c r="E10" s="1">
         <v>96</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>94.25</v>
       </c>
@@ -1900,7 +1914,7 @@
       <c r="E11" s="1">
         <v>84</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -1929,7 +1943,7 @@
       <c r="E12" s="1">
         <v>68</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
@@ -1958,7 +1972,7 @@
       <c r="E13" s="1">
         <v>61</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
@@ -1987,7 +2001,7 @@
       <c r="E14" s="1">
         <v>91</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
@@ -2016,7 +2030,7 @@
       <c r="E15" s="1">
         <v>86</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -2045,7 +2059,7 @@
       <c r="E16" s="1">
         <v>70</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
@@ -2074,7 +2088,7 @@
       <c r="E17" s="1">
         <v>65</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>64.25</v>
       </c>
@@ -2103,7 +2117,7 @@
       <c r="E18" s="1">
         <v>95</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
@@ -2132,7 +2146,7 @@
       <c r="E19" s="1">
         <v>83</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
@@ -2161,7 +2175,7 @@
       <c r="E20" s="1">
         <v>59</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>59.75</v>
       </c>
@@ -2190,7 +2204,7 @@
       <c r="E21" s="1">
         <v>90</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
@@ -2219,7 +2233,7 @@
       <c r="E22" s="1">
         <v>68</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
@@ -2248,7 +2262,7 @@
       <c r="E23" s="1">
         <v>77</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
@@ -2277,7 +2291,7 @@
       <c r="E24" s="1">
         <v>91</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -2306,7 +2320,7 @@
       <c r="E25" s="1">
         <v>54</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
@@ -2335,7 +2349,7 @@
       <c r="E26" s="1">
         <v>31</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>34</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2362,7 +2376,7 @@
       <c r="E27" s="1">
         <v>31</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2389,7 +2403,7 @@
       <c r="E28" s="1">
         <v>83</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
@@ -2418,7 +2432,7 @@
       <c r="E29" s="1">
         <v>69</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
@@ -2447,7 +2461,7 @@
       <c r="E30" s="1">
         <v>92</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
@@ -2476,7 +2490,7 @@
       <c r="E31" s="1">
         <v>80</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>79.25</v>
       </c>
@@ -2505,7 +2519,7 @@
       <c r="E32" s="1">
         <v>64</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
@@ -2534,7 +2548,7 @@
       <c r="E33" s="1">
         <v>75</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
@@ -2563,7 +2577,7 @@
       <c r="E34" s="1">
         <v>98</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
@@ -2592,7 +2606,7 @@
       <c r="E35" s="1">
         <v>26</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>31.5</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2619,7 +2633,7 @@
       <c r="E36" s="1">
         <v>79</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="0"/>
         <v>78.25</v>
       </c>
@@ -2648,7 +2662,7 @@
       <c r="E37" s="1">
         <v>60</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
@@ -2677,7 +2691,7 @@
       <c r="E38" s="1">
         <v>85</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
@@ -2706,7 +2720,7 @@
       <c r="E39" s="1">
         <v>71</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>71.75</v>
       </c>
@@ -2735,7 +2749,7 @@
       <c r="E40" s="1">
         <v>60</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
@@ -2764,7 +2778,7 @@
       <c r="E41" s="1">
         <v>89</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -2793,7 +2807,7 @@
       <c r="E42" s="1">
         <v>73</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="0"/>
         <v>74.5</v>
       </c>
@@ -2822,7 +2836,7 @@
       <c r="E43" s="1">
         <v>34</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>33.799999999999997</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2849,7 +2863,7 @@
       <c r="E44" s="1">
         <v>96</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
@@ -2878,7 +2892,7 @@
       <c r="E45" s="1">
         <v>61</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
@@ -2907,7 +2921,7 @@
       <c r="E46" s="1">
         <v>89</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
@@ -2936,7 +2950,7 @@
       <c r="E47" s="1">
         <v>66</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
@@ -2965,7 +2979,7 @@
       <c r="E48" s="1">
         <v>81</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
@@ -2994,7 +3008,7 @@
       <c r="E49" s="1">
         <v>74</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <f t="shared" si="0"/>
         <v>72.25</v>
       </c>
@@ -3023,7 +3037,7 @@
       <c r="E50" s="1">
         <v>57</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
@@ -3052,7 +3066,7 @@
       <c r="E51" s="1">
         <v>87</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
@@ -3081,7 +3095,7 @@
       <c r="E52" s="1">
         <v>78</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
@@ -3110,7 +3124,7 @@
       <c r="E53" s="1">
         <v>72</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
@@ -3139,7 +3153,7 @@
       <c r="E54" s="1">
         <v>65</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
@@ -3168,7 +3182,7 @@
       <c r="E55" s="1">
         <v>91</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -3197,7 +3211,7 @@
       <c r="E56" s="1">
         <v>87</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
@@ -3226,7 +3240,7 @@
       <c r="E57" s="1">
         <v>50</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <f t="shared" si="0"/>
         <v>52.75</v>
       </c>
@@ -3255,7 +3269,7 @@
       <c r="E58" s="1">
         <v>28</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>33.5</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3282,7 +3296,7 @@
       <c r="E59" s="1">
         <v>35</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>28</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3309,7 +3323,7 @@
       <c r="E60" s="1">
         <v>38</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>32.299999999999997</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3336,7 +3350,7 @@
       <c r="E61" s="1">
         <v>33</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>27.8</v>
       </c>
       <c r="G61" s="1" t="s">

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6335E4C-CB2C-46E1-B85F-16E3607A5F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AED68B1-BBB0-44A1-AFA8-39DA46D31820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Gradebook" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -283,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -305,11 +311,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,6 +342,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,6 +566,48 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Student_Gradebook!$J$2:$J$6</c:f>
@@ -593,13 +662,14 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -654,16 +724,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1249,16 +1312,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1554,7 +1617,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,10 +1660,10 @@
       <c r="H1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1632,10 +1695,10 @@
         <f>IF(G2 = "A", "Excellent", IF(G2 = "B", "Good", IF(G2 = "C","Average",IF(G2="D","Poor","Fail"))))</f>
         <v>Good</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="5">
         <f xml:space="preserve"> COUNTIF(G:G, "A")</f>
         <v>10</v>
       </c>
@@ -1668,10 +1731,10 @@
         <f t="shared" ref="H3:H61" si="2">IF(G3 = "A", "Excellent", IF(G3 = "B", "Good", IF(G3 = "C","Average",IF(G3="D","Poor","Fail"))))</f>
         <v>Excellent</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <f xml:space="preserve"> COUNTIF(G:G, "B")</f>
         <v>13</v>
       </c>
@@ -1704,10 +1767,10 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <f xml:space="preserve"> COUNTIF(G:G, "C")</f>
         <v>22</v>
       </c>
@@ -1738,10 +1801,10 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <f xml:space="preserve"> COUNTIF(G:G, "D")</f>
         <v>6</v>
       </c>
@@ -1774,10 +1837,10 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <f xml:space="preserve"> COUNTIF(G:G, "F")</f>
         <v>9</v>
       </c>
@@ -3390,8 +3453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B22998B-AE2C-4E62-B233-634194BD4779}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AED68B1-BBB0-44A1-AFA8-39DA46D31820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CAEC1F-0856-4807-876E-5739A91CB17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Gradebook" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,9 +353,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,7 +731,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -1313,15 +1322,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1616,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3453,11 +3462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B22998B-AE2C-4E62-B233-634194BD4779}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="7"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CAEC1F-0856-4807-876E-5739A91CB17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F418F1D1-46CF-4BC9-9D01-2CA9FE36482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Gradebook" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,6 +357,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1696,7 +1699,7 @@
         <f xml:space="preserve"> AVERAGE(B2:E2)</f>
         <v>81.25</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="8" t="str">
         <f xml:space="preserve"> IF(F2 &gt;= 90, "A", IF(F2 &gt;= 80, "B", IF(F2 &gt;= 60, "C", IF(F2 &gt;= 50, "D", "F"))))</f>
         <v>B</v>
       </c>
@@ -1732,7 +1735,7 @@
         <f t="shared" ref="F3:F57" si="0" xml:space="preserve"> AVERAGE(B3:E3)</f>
         <v>90.25</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="8" t="str">
         <f t="shared" ref="G3:G57" si="1" xml:space="preserve"> IF(F3 &gt;= 90, "A", IF(F3 &gt;= 80, "B", IF(F3 &gt;= 60, "C", IF(F3 &gt;= 50, "D", "F"))))</f>
         <v>A</v>
       </c>
@@ -1768,7 +1771,7 @@
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -1803,7 +1806,7 @@
       <c r="F5" s="2">
         <v>34.299999999999997</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H5" s="1" t="str">
@@ -1838,7 +1841,7 @@
         <f t="shared" si="0"/>
         <v>91.25</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -1874,7 +1877,7 @@
         <f t="shared" si="0"/>
         <v>80.75</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -1903,7 +1906,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -1932,7 +1935,7 @@
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -1961,7 +1964,7 @@
         <f t="shared" si="0"/>
         <v>94.25</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -1990,7 +1993,7 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -2019,7 +2022,7 @@
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2048,7 +2051,7 @@
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -2077,7 +2080,7 @@
         <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -2106,7 +2109,7 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -2135,7 +2138,7 @@
         <f t="shared" si="0"/>
         <v>73.75</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2164,7 +2167,7 @@
         <f t="shared" si="0"/>
         <v>64.25</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="G17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2193,7 +2196,7 @@
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
-      <c r="G18" s="1" t="str">
+      <c r="G18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -2222,7 +2225,7 @@
         <f t="shared" si="0"/>
         <v>83.5</v>
       </c>
-      <c r="G19" s="1" t="str">
+      <c r="G19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -2251,7 +2254,7 @@
         <f t="shared" si="0"/>
         <v>59.75</v>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="G20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -2280,7 +2283,7 @@
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
-      <c r="G21" s="1" t="str">
+      <c r="G21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -2309,7 +2312,7 @@
         <f t="shared" si="0"/>
         <v>67.25</v>
       </c>
-      <c r="G22" s="1" t="str">
+      <c r="G22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2338,7 +2341,7 @@
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="G23" s="1" t="str">
+      <c r="G23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2367,7 +2370,7 @@
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="G24" s="1" t="str">
+      <c r="G24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -2396,7 +2399,7 @@
         <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
-      <c r="G25" s="1" t="str">
+      <c r="G25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -2424,7 +2427,7 @@
       <c r="F26" s="2">
         <v>34</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H26" s="1" t="str">
@@ -2451,7 +2454,7 @@
       <c r="F27" s="2">
         <v>28</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H27" s="1" t="str">
@@ -2479,7 +2482,7 @@
         <f t="shared" si="0"/>
         <v>83.75</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="G28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -2508,7 +2511,7 @@
         <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="G29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2537,7 +2540,7 @@
         <f t="shared" si="0"/>
         <v>91.5</v>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="G30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -2566,7 +2569,7 @@
         <f t="shared" si="0"/>
         <v>79.25</v>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="G31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2595,7 +2598,7 @@
         <f t="shared" si="0"/>
         <v>64.5</v>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="G32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2624,7 +2627,7 @@
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="G33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2653,7 +2656,7 @@
         <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="G34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -2681,7 +2684,7 @@
       <c r="F35" s="2">
         <v>31.5</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H35" s="1" t="str">
@@ -2709,7 +2712,7 @@
         <f t="shared" si="0"/>
         <v>78.25</v>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="G36" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2738,7 +2741,7 @@
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="G37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2767,7 +2770,7 @@
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="G38" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -2796,7 +2799,7 @@
         <f t="shared" si="0"/>
         <v>71.75</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="G39" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2825,7 +2828,7 @@
         <f t="shared" si="0"/>
         <v>59.5</v>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="G40" s="8" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -2854,7 +2857,7 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="G41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -2883,7 +2886,7 @@
         <f t="shared" si="0"/>
         <v>74.5</v>
       </c>
-      <c r="G42" s="1" t="str">
+      <c r="G42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2911,7 +2914,7 @@
       <c r="F43" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H43" s="1" t="str">
@@ -2939,7 +2942,7 @@
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
-      <c r="G44" s="1" t="str">
+      <c r="G44" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -2968,7 +2971,7 @@
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="G45" s="1" t="str">
+      <c r="G45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -2997,7 +3000,7 @@
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
-      <c r="G46" s="1" t="str">
+      <c r="G46" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -3026,7 +3029,7 @@
         <f t="shared" si="0"/>
         <v>65.5</v>
       </c>
-      <c r="G47" s="1" t="str">
+      <c r="G47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -3055,7 +3058,7 @@
         <f t="shared" si="0"/>
         <v>81.5</v>
       </c>
-      <c r="G48" s="1" t="str">
+      <c r="G48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -3084,7 +3087,7 @@
         <f t="shared" si="0"/>
         <v>72.25</v>
       </c>
-      <c r="G49" s="1" t="str">
+      <c r="G49" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -3113,7 +3116,7 @@
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
-      <c r="G50" s="1" t="str">
+      <c r="G50" s="8" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -3142,7 +3145,7 @@
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-      <c r="G51" s="1" t="str">
+      <c r="G51" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -3171,7 +3174,7 @@
         <f t="shared" si="0"/>
         <v>79.5</v>
       </c>
-      <c r="G52" s="1" t="str">
+      <c r="G52" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -3200,7 +3203,7 @@
         <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
-      <c r="G53" s="1" t="str">
+      <c r="G53" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -3229,7 +3232,7 @@
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="G54" s="1" t="str">
+      <c r="G54" s="8" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
@@ -3258,7 +3261,7 @@
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="G55" s="1" t="str">
+      <c r="G55" s="8" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
@@ -3287,7 +3290,7 @@
         <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
-      <c r="G56" s="1" t="str">
+      <c r="G56" s="8" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
@@ -3316,7 +3319,7 @@
         <f t="shared" si="0"/>
         <v>52.75</v>
       </c>
-      <c r="G57" s="1" t="str">
+      <c r="G57" s="8" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -3344,7 +3347,7 @@
       <c r="F58" s="2">
         <v>33.5</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H58" s="1" t="str">
@@ -3371,7 +3374,7 @@
       <c r="F59" s="2">
         <v>28</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H59" s="1" t="str">
@@ -3398,7 +3401,7 @@
       <c r="F60" s="2">
         <v>32.299999999999997</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H60" s="1" t="str">
@@ -3425,7 +3428,7 @@
       <c r="F61" s="2">
         <v>27.8</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H61" s="1" t="str">
@@ -3462,7 +3465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B22998B-AE2C-4E62-B233-634194BD4779}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F418F1D1-46CF-4BC9-9D01-2CA9FE36482D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131E2CA-7AA5-4C28-B05E-80FEC59F6628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1629,7 +1629,8 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131E2CA-7AA5-4C28-B05E-80FEC59F6628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCF194-EC16-4E7E-87C9-7D16F7E976D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Student Name</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>Grade count</t>
@@ -266,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +275,46 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,6 +395,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,6 +480,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grade Percentage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -481,7 +558,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -501,7 +578,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -521,7 +598,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -541,7 +618,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -561,7 +638,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -636,7 +713,7 @@
                   <c:v>D</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>E</c:v>
+                  <c:v>F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1629,7 +1706,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1677,7 +1754,7 @@
         <v>57</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1708,7 +1785,7 @@
         <f>IF(G2 = "A", "Excellent", IF(G2 = "B", "Good", IF(G2 = "C","Average",IF(G2="D","Poor","Fail"))))</f>
         <v>Good</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="10" t="s">
         <v>69</v>
       </c>
       <c r="K2" s="5">
@@ -1744,7 +1821,7 @@
         <f t="shared" ref="H3:H61" si="2">IF(G3 = "A", "Excellent", IF(G3 = "B", "Good", IF(G3 = "C","Average",IF(G3="D","Poor","Fail"))))</f>
         <v>Excellent</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K3" s="5">
@@ -1780,7 +1857,7 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="11" t="s">
         <v>71</v>
       </c>
       <c r="K4" s="5">
@@ -1814,7 +1891,7 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="12" t="s">
         <v>72</v>
       </c>
       <c r="K5" s="5">
@@ -1850,8 +1927,8 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>73</v>
+      <c r="J6" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="K6" s="5">
         <f xml:space="preserve"> COUNTIF(G:G, "F")</f>
@@ -3467,7 +3544,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCF194-EC16-4E7E-87C9-7D16F7E976D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764515A-10AC-416A-A504-92C905BA7667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1707,7 +1707,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3764515A-10AC-416A-A504-92C905BA7667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B5C2B-601A-48CA-A0D3-64678B30C82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>Student Name</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Grade count</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1703,11 +1706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1725,7 +1728,7 @@
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1756,8 +1759,14 @@
       <c r="K1" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1792,8 +1801,12 @@
         <f xml:space="preserve"> COUNTIF(G:G, "A")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1828,8 +1841,12 @@
         <f xml:space="preserve"> COUNTIF(G:G, "B")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1864,8 +1881,12 @@
         <f xml:space="preserve"> COUNTIF(G:G, "C")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -1898,8 +1919,12 @@
         <f xml:space="preserve"> COUNTIF(G:G, "D")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +1960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1964,7 +1989,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1993,7 +2018,7 @@
         <v>Average</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2047,7 @@
         <v>Average</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2051,7 +2076,7 @@
         <v>Excellent</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2080,7 +2105,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2109,7 +2134,7 @@
         <v>Average</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2138,7 +2163,7 @@
         <v>Poor</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +2192,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2221,7 @@
         <v>Good</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B5C2B-601A-48CA-A0D3-64678B30C82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43652FA0-8612-4254-9B97-D2B103D20FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +345,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,6 +420,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,7 +518,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Grade Percentage</a:t>
+              <a:t>Grade Distribution</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -841,7 +856,348 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Student_Gradebook!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Math</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>English</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Science</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>History</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Student_Gradebook!$N$2:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.683333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.166666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2929-41DF-AB01-7658F8F900B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1071943920"/>
+        <c:axId val="1071941520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1071943920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1071941520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1071941520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1071943920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1368,6 +1724,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1435,6 +2294,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E928E4-F273-4DCB-A42F-4765BBF4C791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1710,7 +2607,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1759,10 +2656,10 @@
       <c r="K1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1804,7 +2701,10 @@
       <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="14">
+        <f xml:space="preserve"> AVERAGE(B2:B61)</f>
+        <v>69.75</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1844,7 +2744,10 @@
       <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="16">
+        <f xml:space="preserve"> AVERAGE(C2:C61)</f>
+        <v>69.900000000000006</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1884,7 +2787,10 @@
       <c r="M4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="14">
+        <f xml:space="preserve"> AVERAGE(D2:D61)</f>
+        <v>70.683333333333337</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1922,7 +2828,10 @@
       <c r="M5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="14">
+        <f xml:space="preserve"> AVERAGE(E2:E61)</f>
+        <v>70.166666666666671</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -3569,7 +4478,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43652FA0-8612-4254-9B97-D2B103D20FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578FC083-F445-4A01-B095-F4636F210E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Gradebook" sheetId="1" r:id="rId1"/>
     <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
   <si>
     <t>Student Name</t>
   </si>
@@ -259,7 +262,19 @@
     <t>Grade count</t>
   </si>
   <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Average</t>
+  </si>
+  <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Top 5 Student</t>
   </si>
 </sst>
 </file>
@@ -323,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,6 +442,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,6 +456,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,6 +904,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Score per Subject</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -912,7 +975,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -921,6 +984,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1157,6 +1221,935 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Student</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance Trend</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25286447889665964"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Student_Gradebook!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Student_Gradebook!$A$2:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>Alice Johnson</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Brian Smith</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clara Davis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fatima Lawal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Emily Brown</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Frank Miller</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Grace Wilson</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Henry Moore</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ivy Taylor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jack Anderson</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Kelly Thomas</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Liam Jackson</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Maya White</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Noah Harris</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Olivia Martin</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Peter Thompson</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Queenie Scott</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ryan Lewis</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sarah Hall</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Thomas Young</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Uma King</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Victor Wright</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Wendy Lopez</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Xavier Hill</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>David Akinyemi</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Janet Ojo</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Yara Green</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Zack Adams</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Amy Reed</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Ben Ward</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Cindy Perez</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Dylan Cox</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Ella James</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Kelvin James</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Felix Turner</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Gina Stewart</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Harry Morris</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Isla Rogers</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>James Bell</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Kate Bryant</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Leo Griffin</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Grace Okoro</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Mia Ford</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Nate Graham</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Olivia Hunter</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Paul Coleman</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Quinn Foster</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Ruby Hamilton</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Sam Peterson</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Tina Russell</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Ugo Sanders</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Vicky Diaz</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Will Barnes</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Xena Walters</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Yemi Clark</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Zackary Evans</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Sarah Adeoye</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Musa Ibrahim</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Ibrahim Yusuf</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chinedu Eze</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Student_Gradebook!$F$2:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>85.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3DC-453A-A4B7-FA8CEA151F42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1159457136"/>
+        <c:axId val="1159458576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1159457136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1159458576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1159458576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159457136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Student_Gradebook!$M$10:$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Mia Ford</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Queenie Scott</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ella James</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ivy Taylor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wendy Lopez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Student_Gradebook!$N$10:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFBC-4E4B-A332-765E26575954}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="983261056"/>
+        <c:axId val="983265376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="983261056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983265376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="983265376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="983261056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1237,6 +2230,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -1757,6 +2830,1025 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2269,10 +4361,10 @@
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2301,8 +4393,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
@@ -2337,7 +4429,1080 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37619DB-4D19-45CC-869D-15B4807FFA61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C93BB3E-9EF7-4AE8-A3E6-11A96E165F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="PC" refreshedDate="45797.456401736112" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{C29C80B7-3BE9-42B3-8D31-5E96DA1EB330}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H61" sheet="Student_Gradebook"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Student Name" numFmtId="0">
+      <sharedItems count="60">
+        <s v="Alice Johnson"/>
+        <s v="Brian Smith"/>
+        <s v="Clara Davis"/>
+        <s v="Fatima Lawal"/>
+        <s v="Emily Brown"/>
+        <s v="Frank Miller"/>
+        <s v="Grace Wilson"/>
+        <s v="Henry Moore"/>
+        <s v="Ivy Taylor"/>
+        <s v="Jack Anderson"/>
+        <s v="Kelly Thomas"/>
+        <s v="Liam Jackson"/>
+        <s v="Maya White"/>
+        <s v="Noah Harris"/>
+        <s v="Olivia Martin"/>
+        <s v="Peter Thompson"/>
+        <s v="Queenie Scott"/>
+        <s v="Ryan Lewis"/>
+        <s v="Sarah Hall"/>
+        <s v="Thomas Young"/>
+        <s v="Uma King"/>
+        <s v="Victor Wright"/>
+        <s v="Wendy Lopez"/>
+        <s v="Xavier Hill"/>
+        <s v="David Akinyemi"/>
+        <s v="Janet Ojo"/>
+        <s v="Yara Green"/>
+        <s v="Zack Adams"/>
+        <s v="Amy Reed"/>
+        <s v="Ben Ward"/>
+        <s v="Cindy Perez"/>
+        <s v="Dylan Cox"/>
+        <s v="Ella James"/>
+        <s v="Kelvin James"/>
+        <s v="Felix Turner"/>
+        <s v="Gina Stewart"/>
+        <s v="Harry Morris"/>
+        <s v="Isla Rogers"/>
+        <s v="James Bell"/>
+        <s v="Kate Bryant"/>
+        <s v="Leo Griffin"/>
+        <s v="Grace Okoro"/>
+        <s v="Mia Ford"/>
+        <s v="Nate Graham"/>
+        <s v="Olivia Hunter"/>
+        <s v="Paul Coleman"/>
+        <s v="Quinn Foster"/>
+        <s v="Ruby Hamilton"/>
+        <s v="Sam Peterson"/>
+        <s v="Tina Russell"/>
+        <s v="Ugo Sanders"/>
+        <s v="Vicky Diaz"/>
+        <s v="Will Barnes"/>
+        <s v="Xena Walters"/>
+        <s v="Yemi Clark"/>
+        <s v="Zackary Evans"/>
+        <s v="Sarah Adeoye"/>
+        <s v="Musa Ibrahim"/>
+        <s v="Ibrahim Yusuf"/>
+        <s v="Chinedu Eze"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Math" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="99"/>
+    </cacheField>
+    <cacheField name="English" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="98"/>
+    </cacheField>
+    <cacheField name="Science" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="27" maxValue="97"/>
+    </cacheField>
+    <cacheField name="History" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="98"/>
+    </cacheField>
+    <cacheField name="Average" numFmtId="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="27.8" maxValue="97.5"/>
+    </cacheField>
+    <cacheField name="Grade" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Remark" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+  <r>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="82"/>
+    <n v="85"/>
+    <n v="80"/>
+    <n v="81.25"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="88"/>
+    <n v="92"/>
+    <n v="91"/>
+    <n v="90.25"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="65"/>
+    <n v="70"/>
+    <n v="68"/>
+    <n v="72"/>
+    <n v="68.75"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="40"/>
+    <n v="37"/>
+    <n v="31"/>
+    <n v="29"/>
+    <n v="34.299999999999997"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="92"/>
+    <n v="95"/>
+    <n v="90"/>
+    <n v="88"/>
+    <n v="91.25"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="81"/>
+    <n v="79"/>
+    <n v="83"/>
+    <n v="80"/>
+    <n v="80.75"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="76"/>
+    <n v="74"/>
+    <n v="72"/>
+    <n v="78"/>
+    <n v="75"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="68"/>
+    <n v="65"/>
+    <n v="70"/>
+    <n v="66"/>
+    <n v="67.25"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="94"/>
+    <n v="92"/>
+    <n v="95"/>
+    <n v="96"/>
+    <n v="94.25"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="83"/>
+    <n v="85"/>
+    <n v="80"/>
+    <n v="84"/>
+    <n v="83"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="71"/>
+    <n v="73"/>
+    <n v="70"/>
+    <n v="68"/>
+    <n v="70.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="58"/>
+    <n v="60"/>
+    <n v="59"/>
+    <n v="61"/>
+    <n v="59.5"/>
+    <s v="D"/>
+    <s v="Poor"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="89"/>
+    <n v="90"/>
+    <n v="88"/>
+    <n v="91"/>
+    <n v="89.5"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="85"/>
+    <n v="82"/>
+    <n v="87"/>
+    <n v="86"/>
+    <n v="85"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="75"/>
+    <n v="77"/>
+    <n v="73"/>
+    <n v="70"/>
+    <n v="73.75"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="64"/>
+    <n v="61"/>
+    <n v="67"/>
+    <n v="65"/>
+    <n v="64.25"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="98"/>
+    <n v="97"/>
+    <n v="96"/>
+    <n v="95"/>
+    <n v="96.5"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="82"/>
+    <n v="85"/>
+    <n v="84"/>
+    <n v="83"/>
+    <n v="83.5"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="60"/>
+    <n v="58"/>
+    <n v="62"/>
+    <n v="59"/>
+    <n v="59.75"/>
+    <s v="D"/>
+    <s v="Poor"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="87"/>
+    <n v="89"/>
+    <n v="88"/>
+    <n v="90"/>
+    <n v="88.5"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="66"/>
+    <n v="70"/>
+    <n v="65"/>
+    <n v="68"/>
+    <n v="67.25"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="78"/>
+    <n v="75"/>
+    <n v="80"/>
+    <n v="77"/>
+    <n v="77.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="93"/>
+    <n v="94"/>
+    <n v="92"/>
+    <n v="91"/>
+    <n v="92.5"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="55"/>
+    <n v="53"/>
+    <n v="52"/>
+    <n v="54"/>
+    <n v="53.5"/>
+    <s v="D"/>
+    <s v="Poor"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="35"/>
+    <n v="42"/>
+    <n v="28"/>
+    <n v="31"/>
+    <n v="34"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="19"/>
+    <n v="24"/>
+    <n v="38"/>
+    <n v="31"/>
+    <n v="28"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="84"/>
+    <n v="82"/>
+    <n v="86"/>
+    <n v="83"/>
+    <n v="83.75"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="68"/>
+    <n v="67"/>
+    <n v="70"/>
+    <n v="69"/>
+    <n v="68.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="91"/>
+    <n v="93"/>
+    <n v="90"/>
+    <n v="92"/>
+    <n v="91.5"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="79"/>
+    <n v="77"/>
+    <n v="81"/>
+    <n v="80"/>
+    <n v="79.25"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="63"/>
+    <n v="65"/>
+    <n v="66"/>
+    <n v="64"/>
+    <n v="64.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="74"/>
+    <n v="72"/>
+    <n v="73"/>
+    <n v="75"/>
+    <n v="73.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="95"/>
+    <n v="97"/>
+    <n v="96"/>
+    <n v="98"/>
+    <n v="96.5"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="36"/>
+    <n v="30"/>
+    <n v="34"/>
+    <n v="26"/>
+    <n v="31.5"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="80"/>
+    <n v="78"/>
+    <n v="76"/>
+    <n v="79"/>
+    <n v="78.25"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="59"/>
+    <n v="62"/>
+    <n v="61"/>
+    <n v="60"/>
+    <n v="60.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="86"/>
+    <n v="84"/>
+    <n v="87"/>
+    <n v="85"/>
+    <n v="85.5"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="70"/>
+    <n v="72"/>
+    <n v="74"/>
+    <n v="71"/>
+    <n v="71.75"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="61"/>
+    <n v="59"/>
+    <n v="58"/>
+    <n v="60"/>
+    <n v="59.5"/>
+    <s v="D"/>
+    <s v="Poor"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="88"/>
+    <n v="86"/>
+    <n v="85"/>
+    <n v="89"/>
+    <n v="87"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="76"/>
+    <n v="74"/>
+    <n v="75"/>
+    <n v="73"/>
+    <n v="74.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="22"/>
+    <n v="38"/>
+    <n v="41"/>
+    <n v="34"/>
+    <n v="33.799999999999997"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="99"/>
+    <n v="98"/>
+    <n v="97"/>
+    <n v="96"/>
+    <n v="97.5"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="62"/>
+    <n v="64"/>
+    <n v="63"/>
+    <n v="61"/>
+    <n v="62.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="90"/>
+    <n v="92"/>
+    <n v="91"/>
+    <n v="89"/>
+    <n v="90.5"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="67"/>
+    <n v="65"/>
+    <n v="64"/>
+    <n v="66"/>
+    <n v="65.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <n v="82"/>
+    <n v="80"/>
+    <n v="83"/>
+    <n v="81"/>
+    <n v="81.5"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <n v="73"/>
+    <n v="70"/>
+    <n v="72"/>
+    <n v="74"/>
+    <n v="72.25"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <n v="58"/>
+    <n v="56"/>
+    <n v="59"/>
+    <n v="57"/>
+    <n v="57.5"/>
+    <s v="D"/>
+    <s v="Poor"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <n v="85"/>
+    <n v="88"/>
+    <n v="86"/>
+    <n v="87"/>
+    <n v="86.5"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <n v="79"/>
+    <n v="81"/>
+    <n v="80"/>
+    <n v="78"/>
+    <n v="79.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <n v="69"/>
+    <n v="71"/>
+    <n v="70"/>
+    <n v="72"/>
+    <n v="70.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <n v="63"/>
+    <n v="60"/>
+    <n v="62"/>
+    <n v="65"/>
+    <n v="62.5"/>
+    <s v="C"/>
+    <s v="Average"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <n v="92"/>
+    <n v="94"/>
+    <n v="93"/>
+    <n v="91"/>
+    <n v="92.5"/>
+    <s v="A"/>
+    <s v="Excellent"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <n v="86"/>
+    <n v="83"/>
+    <n v="85"/>
+    <n v="87"/>
+    <n v="85.25"/>
+    <s v="B"/>
+    <s v="Good"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <n v="54"/>
+    <n v="52"/>
+    <n v="55"/>
+    <n v="50"/>
+    <n v="52.75"/>
+    <s v="D"/>
+    <s v="Poor"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <n v="39"/>
+    <n v="40"/>
+    <n v="27"/>
+    <n v="28"/>
+    <n v="33.5"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <n v="25"/>
+    <n v="20"/>
+    <n v="32"/>
+    <n v="35"/>
+    <n v="28"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <n v="30"/>
+    <n v="26"/>
+    <n v="35"/>
+    <n v="38"/>
+    <n v="32.299999999999997"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <n v="18"/>
+    <n v="21"/>
+    <n v="39"/>
+    <n v="33"/>
+    <n v="27.8"/>
+    <s v="F"/>
+    <s v="Fail"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95E42228-2752-4FE1-9346-2CECC27AE4C0}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J9:K70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="61">
+        <item x="0"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="1"/>
+        <item x="59"/>
+        <item x="30"/>
+        <item x="2"/>
+        <item x="24"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="34"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="41"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="58"/>
+        <item x="37"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="38"/>
+        <item x="25"/>
+        <item x="39"/>
+        <item x="10"/>
+        <item x="33"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="42"/>
+        <item x="57"/>
+        <item x="43"/>
+        <item x="13"/>
+        <item x="44"/>
+        <item x="14"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="17"/>
+        <item x="48"/>
+        <item x="56"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="20"/>
+        <item x="51"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="52"/>
+        <item x="23"/>
+        <item x="53"/>
+        <item x="26"/>
+        <item x="54"/>
+        <item x="27"/>
+        <item x="55"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="61">
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2603,11 +5768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2620,9 +5785,13 @@
     <col min="6" max="6" width="10.36328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="13.54296875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2656,10 +5825,10 @@
       <c r="K1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2701,7 +5870,7 @@
       <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="17">
         <f xml:space="preserve"> AVERAGE(B2:B61)</f>
         <v>69.75</v>
       </c>
@@ -2744,7 +5913,7 @@
       <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="19">
         <f xml:space="preserve"> AVERAGE(C2:C61)</f>
         <v>69.900000000000006</v>
       </c>
@@ -2787,7 +5956,7 @@
       <c r="M4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="17">
         <f xml:space="preserve"> AVERAGE(D2:D61)</f>
         <v>70.683333333333337</v>
       </c>
@@ -2828,7 +5997,7 @@
       <c r="M5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="17">
         <f xml:space="preserve"> AVERAGE(E2:E61)</f>
         <v>70.166666666666671</v>
       </c>
@@ -2955,6 +6124,17 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -2984,6 +6164,19 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="J10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="14">
+        <v>97.5</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="22">
+        <v>97.5</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -3013,6 +6206,19 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="14">
+        <v>96.5</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="22">
+        <v>96.5</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -3042,6 +6248,19 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="14">
+        <v>96.5</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="22">
+        <v>96.5</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -3071,6 +6290,19 @@
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
+      <c r="J13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="14">
+        <v>94.25</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="22">
+        <v>94.25</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -3100,6 +6332,19 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="14">
+        <v>92.5</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="22">
+        <v>92.5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -3129,6 +6374,15 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="14">
+        <v>92.5</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -3158,8 +6412,17 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="14">
+        <v>91.5</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3187,8 +6450,17 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="14">
+        <v>91.25</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3216,8 +6488,17 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="J18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="14">
+        <v>90.5</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3245,8 +6526,17 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="14">
+        <v>90.25</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3274,8 +6564,15 @@
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
+      <c r="J20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="14">
+        <v>89.5</v>
+      </c>
+      <c r="L20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3303,8 +6600,15 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="14">
+        <v>88.5</v>
+      </c>
+      <c r="L21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3332,8 +6636,15 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="14">
+        <v>87</v>
+      </c>
+      <c r="L22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3361,8 +6672,15 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="14">
+        <v>86.5</v>
+      </c>
+      <c r="L23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3390,8 +6708,15 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="J24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="14">
+        <v>85.5</v>
+      </c>
+      <c r="L24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3419,8 +6744,15 @@
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
+      <c r="J25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="14">
+        <v>85.25</v>
+      </c>
+      <c r="L25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -3446,8 +6778,15 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
+      <c r="J26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="14">
+        <v>85</v>
+      </c>
+      <c r="L26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -3473,8 +6812,14 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
+      <c r="J27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="14">
+        <v>83.75</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -3502,8 +6847,14 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="14">
+        <v>83.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3531,8 +6882,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="14">
+        <v>83</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -3560,8 +6917,14 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="J30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="14">
+        <v>81.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3589,8 +6952,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="14">
+        <v>81.25</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -3618,8 +6987,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="14">
+        <v>80.75</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3647,8 +7022,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="14">
+        <v>79.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -3676,8 +7057,14 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="J34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="14">
+        <v>79.25</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +7090,14 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
+      <c r="J35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="14">
+        <v>78.25</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3732,8 +7125,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="14">
+        <v>77.5</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3761,8 +7160,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="14">
+        <v>75</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3790,8 +7195,14 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="14">
+        <v>74.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3819,8 +7230,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="14">
+        <v>73.75</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3848,8 +7265,14 @@
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
+      <c r="J40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="14">
+        <v>73.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3877,8 +7300,14 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J41" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="14">
+        <v>72.25</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -3906,8 +7335,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J42" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="14">
+        <v>71.75</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
@@ -3933,8 +7368,14 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
+      <c r="J43" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="14">
+        <v>70.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -3962,8 +7403,14 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="J44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="14">
+        <v>70.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -3991,8 +7438,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J45" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="14">
+        <v>68.75</v>
+      </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -4020,8 +7473,14 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="J46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="14">
+        <v>68.5</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -4049,8 +7508,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="14">
+        <v>67.25</v>
+      </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -4078,8 +7543,14 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="14">
+        <v>67.25</v>
+      </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -4107,8 +7578,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J49" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="14">
+        <v>65.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -4136,8 +7613,14 @@
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
+      <c r="J50" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="14">
+        <v>64.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -4165,8 +7648,14 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="14">
+        <v>64.25</v>
+      </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -4194,8 +7683,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J52" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" s="14">
+        <v>62.5</v>
+      </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -4223,8 +7718,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="14">
+        <v>62.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -4252,8 +7753,14 @@
         <f t="shared" si="2"/>
         <v>Average</v>
       </c>
+      <c r="J54" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="14">
+        <v>60.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -4281,8 +7788,14 @@
         <f t="shared" si="2"/>
         <v>Excellent</v>
       </c>
+      <c r="J55" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="14">
+        <v>59.75</v>
+      </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -4310,8 +7823,14 @@
         <f t="shared" si="2"/>
         <v>Good</v>
       </c>
+      <c r="J56" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="14">
+        <v>59.5</v>
+      </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -4339,8 +7858,14 @@
         <f t="shared" si="2"/>
         <v>Poor</v>
       </c>
+      <c r="J57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="14">
+        <v>59.5</v>
+      </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -4366,8 +7891,14 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
+      <c r="J58" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" s="14">
+        <v>57.5</v>
+      </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -4393,8 +7924,14 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
+      <c r="J59" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="14">
+        <v>53.5</v>
+      </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -4420,8 +7957,14 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
+      <c r="J60" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" s="14">
+        <v>52.75</v>
+      </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -4447,8 +7990,89 @@
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
+      <c r="J61" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="14">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J62" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J63" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="14">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J64" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K64" s="14">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J65" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K65" s="14">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J66" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" s="14">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J67" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J68" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K68" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J69" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" s="14">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J70" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K70" s="14">
+        <v>4207.7</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M9:N9"/>
+  </mergeCells>
   <conditionalFormatting sqref="G2:G57">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",G2)))</formula>
@@ -4469,7 +8093,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4477,8 +8101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B22998B-AE2C-4E62-B233-634194BD4779}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Student_Gradebook/student_gradebook.xlsx
+++ b/Student_Gradebook/student_gradebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-Projects\Student_Gradebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578FC083-F445-4A01-B095-F4636F210E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E6ACF3-E9B9-43C5-8F03-DC01AD1C900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>Top 5 Student</t>
+    <t>Top 5 Students</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Grade Distribution</a:t>
             </a:r>
           </a:p>
@@ -923,14 +923,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Average</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Score per Subject</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1255,14 +1255,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Student</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Performance Trend</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1270,8 +1270,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25286447889665964"/>
-          <c:y val="4.6296296296296294E-2"/>
+          <c:x val="0.25286451427290907"/>
+          <c:y val="2.7952063399321336E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1858,6 +1858,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Top</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 5 Student by Average</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5772,7 +5802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8101,8 +8131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B22998B-AE2C-4E62-B233-634194BD4779}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
